--- a/biology/Histoire de la zoologie et de la botanique/Ivor_Lansbury/Ivor_Lansbury.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ivor_Lansbury/Ivor_Lansbury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ivor Lansbury (1932-2015) est un entomologiste, spécialiste des hétéroptères (hétéroptériste) aquatiques et semi-aquatiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ivor Lansbury (1932-2015) est un entomologiste, spécialiste des hétéroptères (hétéroptériste) aquatiques et semi-aquatiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a travaillé au Museum d'histoire naturelle de Londres, puis au Musée d'histoire naturelle de l'université d'Oxford, au Département d'entomologie.
 </t>
@@ -542,10 +556,48 @@
           <t>Hétéroptériste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivor Lansbury a beaucoup travaillé sur les punaises aquatiques (Nepomorpha, Gerromorpha), et notamment celles d'Australie et de la zone indomalaise. Il a également travaillé sur les Stenocephalidae et les Mecistoscelidini (Miridae). 
-Publications
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ivor_Lansbury</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ivor_Lansbury</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hétéroptériste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Publications d'Ivor Lansbury
 Lansbury, I. (1954). A new species of Micronecta (Hem., Corixidae) from the Anglo-Egyptian Sudan. Entomologist's Monthly Magazine 90: 140-142.
 Lansbury, I. (1955). Distributional Records of North American Corixidae (Hemiptera: Heteroptera). The Canadian Entomologist, 87 (11): 474-481. DOI 10.4039/Ent87474-11.
@@ -553,7 +605,7 @@
 Lansbury, I. (1961a). Notes on the genus Anisops (Hemiptera, Notonectidae) in the Hungarian National Museum. Ann. hist.-nat. Mus. Hung. 53: 505–506.
 Lansbury, I. (1961b). A new species of Anisops (Hemiptera: Notonectidae) from East Africa. Proceedings of the Royal Entomological Society of London, Series B, Taxonomy. 30 (9-10): 29-30. DOI 10.1111/j.1365-3113.1961.tb00181.x.
 Lansbury, I. (1962). Notes on the genus Anisops in Bishop Museum. Pacific Insects. 4: 141–151 lire en ligne.
-Lansbury, I. (1963a). Revision of the tribe Mecistoscelini Reuter (Hemiptera-Heteroptera, Miridae). Bulletin of Entomology, 4: 1-12 [2].
+Lansbury, I. (1963a). Revision of the tribe Mecistoscelini Reuter (Hemiptera-Heteroptera, Miridae). Bulletin of Entomology, 4: 1-12 .
 Lansbury, I. (1963b). Notes on the Water-Bugs of Solomon Islands and New Hebrides. Pacific Insects. 5 (1): 5-10. lire en ligne.
 Lansbury, I. (1964a). The genus Anisops in Australia (Hemiptera-Heteroptera, Notonectidae). Part I. Journal of the Entomological Society of Queensland 3: 52-65 DOI 10.1111/j.1440-6055.1964.tb00622.x.
 Lansbury, I. (1964b). A revision of the genus Paranisops Hale (Heteroptera: Notonectidae). Proceedings of the Royal Entomological Society of London. Series B, Taxonomy. 33 (11-12): 181-188 DOI 10.1111/j.1365-3113.1964.tb01600.x.
@@ -598,8 +650,43 @@
 Lansbury, I., &amp; Zettel H. (1997a). New Species and Subspecies of the Genus Strongylovelia Esaki (Insecta: Heteroptera: Veliidae) from Borneo and the Philippines. Annalen Des Naturhistorischen Museums in Wien. Serie B Für Botanik Und Zoologie, 99: 51–77. lire en ligne.
 Polhemus, J.T. &amp; Lansbury, I. (1997b). Revision of the genus Hydrometra Latreille in Australia, Melanesia, and the Southwest Pacific (Heteroptera: Hydrometridae). Occasional Papers of the Bernice P. Bishop Museum 47: 1-67.
 Chen P., Nieser, N. &amp; Lansbury, I. (2008). Notes on aquatic and semiaquatic bugs (Hemiptera: Heteroptera: Nepomorpha, Gerromorpha) from Malesia with description of three new species. Acta Entomologica Musei Nationalis Pragae 48(2): 269-279 lire en ligne
-Taxons décrits
-I. Lansbury a décrit deux tribus, quatre genres, et plus d'une centaine d'espèces nouvelles. Parmi les taxons décrits par I. Lansbury, on peut mentionner, selon BioLib                    (4 février 2023)[3] et Coreoidea Species Files[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ivor_Lansbury</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ivor_Lansbury</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hétéroptériste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons décrits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I. Lansbury a décrit deux tribus, quatre genres, et plus d'une centaine d'espèces nouvelles. Parmi les taxons décrits par I. Lansbury, on peut mentionner, selon BioLib                    (4 février 2023) et Coreoidea Species Files :
 infra-ordre Cimicomorpha
 famille Miridae
 espèce Mecistoscelis phillipinensis Lansbury, 1963
@@ -646,33 +733,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ivor_Lansbury</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ivor_Lansbury</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxons nommés en son hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs taxons ont été nommés en son hommage, selon BioLib                    (4 février 2023)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs taxons ont été nommés en son hommage, selon BioLib                    (4 février 2023) :
 Anisops lansburyi Leong, 1963 (Notonectidae)
 Arctocorisa carinata lansburyi Jansson, 1979 (Corixidae)
 Enithares lansburyi Nieser &amp; Chen, 1991 (Notonectidae)
@@ -680,7 +769,7 @@
 Macroscytus lansburyi J.A. Lis, 1994 (Cydnidae)
 Myiomma lansburyi (Carvalho, 1951) (Miridae)
 Parasigmoidella lansburyi Roth, 1997 (Ectobiidae)
-Pseudovelia lansburyi (Hoberlandt, 1956) (Veliidae)[5]
+Pseudovelia lansburyi (Hoberlandt, 1956) (Veliidae)
 Ranatra lansburyi Chen, Nieser &amp; Ho, 2004 (Nepidae)
 Rhagovelia lansburyi Zettel, 1995 (Veliidae)
 Xenobates lansburyi Andersen &amp; Weir, 1999  (Veliidae)
